--- a/TEMP/EMPRESA_016/D E S C A R G O S  R E A L I Z A D O S.xlsx
+++ b/TEMP/EMPRESA_016/D E S C A R G O S  R E A L I Z A D O S.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>CENTRO MEDICO MATERNAL PAEZ ALMEIDA NARANJO SOCIEDAD COLECTIVA CIVIL</t>
   </si>
@@ -42,7 +42,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">22:27
+      <t xml:space="preserve">18:53
 </t>
     </r>
     <r>
@@ -67,7 +67,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">23-06-2022
+      <t xml:space="preserve">23-07-2022
 </t>
     </r>
     <r>
@@ -99,16 +99,16 @@
     <t>D E S C A R G O S  R E A L I Z A D O S</t>
   </si>
   <si>
-    <t>Nombre: BOADA PAREDES YESSENIA LIZETH</t>
-  </si>
-  <si>
-    <t>Fecha: 2022-06-23</t>
-  </si>
-  <si>
-    <t>Concepto: Salida de inventario bodega  para BOADA PAREDES YESSENIA LIZETH con CI: 1725587933 el dia 2022-06-23</t>
-  </si>
-  <si>
-    <t>Comprobante: 6005720</t>
+    <t>Nombre: MAFLA LESCANO DEBORAH SELENE</t>
+  </si>
+  <si>
+    <t>Fecha: 2022-07-14</t>
+  </si>
+  <si>
+    <t>Concepto: Salida de inventario para MAFLA LESCANO DEBORAH SELENE con CI: 1724261688 el dia 2022-07-14</t>
+  </si>
+  <si>
+    <t>Comprobante: 7005339</t>
   </si>
   <si>
     <t>Codigo</t>
@@ -126,10 +126,223 @@
     <t>Total</t>
   </si>
   <si>
-    <t>01.ME.02.010</t>
-  </si>
-  <si>
-    <t>FINALYN FORTE</t>
+    <t>01.IN.01.131</t>
+  </si>
+  <si>
+    <t>SONDA FOLEY No. 16</t>
+  </si>
+  <si>
+    <t>01.IN.01.510</t>
+  </si>
+  <si>
+    <t>PENCAN No.27 / SPINOCAN 27 PUNTA LAPIZ</t>
+  </si>
+  <si>
+    <t>01.IN.01.004</t>
+  </si>
+  <si>
+    <t>AGUJAS HIPODÉRMICAS 18</t>
+  </si>
+  <si>
+    <t>01.IN.01.022</t>
+  </si>
+  <si>
+    <t>CATLON No. 20</t>
+  </si>
+  <si>
+    <t>01.IN.01.036</t>
+  </si>
+  <si>
+    <t>COMPRESAS QUIR 45.7X45.7cm X-RAY PAQ X 5</t>
+  </si>
+  <si>
+    <t>01.IN.01.037</t>
+  </si>
+  <si>
+    <t>CUBRE ZAPATOS DESCARTABLES</t>
+  </si>
+  <si>
+    <t>01.IN.01.041</t>
+  </si>
+  <si>
+    <t>ELECTRODOS ADULTO</t>
+  </si>
+  <si>
+    <t>01.IN.01.047</t>
+  </si>
+  <si>
+    <t>EQUIPO DE VENOCLICIS</t>
+  </si>
+  <si>
+    <t>01.IN.01.054</t>
+  </si>
+  <si>
+    <t>FUNDA RECOLECTORA ORINA ADULTO</t>
+  </si>
+  <si>
+    <t>01.IN.01.059</t>
+  </si>
+  <si>
+    <t>GORROS DESCARTABLE ENFERMERA</t>
+  </si>
+  <si>
+    <t>01.IN.01.061</t>
+  </si>
+  <si>
+    <t>GUANTES QUIR. No. 6.5</t>
+  </si>
+  <si>
+    <t>01.IN.01.063</t>
+  </si>
+  <si>
+    <t>GUANTES QUIR. No. 7.5</t>
+  </si>
+  <si>
+    <t>01.IN.01.064</t>
+  </si>
+  <si>
+    <t>GILLETT</t>
+  </si>
+  <si>
+    <t>01.IN.01.068</t>
+  </si>
+  <si>
+    <t>HOJAS BISTURI No. 23</t>
+  </si>
+  <si>
+    <t>01.IN.01.076</t>
+  </si>
+  <si>
+    <t>JERINGUILLAS DESC 3 ML</t>
+  </si>
+  <si>
+    <t>01.IN.01.077</t>
+  </si>
+  <si>
+    <t>JERINGUILLAS DESC 5 ML</t>
+  </si>
+  <si>
+    <t>01.IN.01.078</t>
+  </si>
+  <si>
+    <t>JERINGUILLAS DESC 10 ML</t>
+  </si>
+  <si>
+    <t>01.IN.01.079</t>
+  </si>
+  <si>
+    <t>JERINGUILLAS DESC 20ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.014</t>
+  </si>
+  <si>
+    <t>CEFAZOLINA 1 GR</t>
+  </si>
+  <si>
+    <t>01.ME.01.046</t>
+  </si>
+  <si>
+    <t>KETOROLACO DE 30 MG INY</t>
+  </si>
+  <si>
+    <t>01.ME.01.066</t>
+  </si>
+  <si>
+    <t>SOLUCION SALINA 0.9% 100 ML</t>
+  </si>
+  <si>
+    <t>01.ME.02.006</t>
+  </si>
+  <si>
+    <t>CEFALEXINA 500 MG</t>
+  </si>
+  <si>
+    <t>01.ME.02.037</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 400MG X100 TAB. GENFAR</t>
+  </si>
+  <si>
+    <t>01.ME.02.001</t>
+  </si>
+  <si>
+    <t>ACETAMINOFEN TAB 500 MG X 100</t>
+  </si>
+  <si>
+    <t>01.ME.01.047</t>
+  </si>
+  <si>
+    <t>LACTATO DE RINGER 1000 ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.068</t>
+  </si>
+  <si>
+    <t>SOLUCION SALINA 0.9% 500 ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.002</t>
+  </si>
+  <si>
+    <t>METAMIZOL 1GR /2ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.057</t>
+  </si>
+  <si>
+    <t>OXITOCINA 10 UI X 1 ML</t>
+  </si>
+  <si>
+    <t>01.IN.03.025</t>
+  </si>
+  <si>
+    <t>VICRYL 1 CT-1 70 CM. C. GRAL.</t>
+  </si>
+  <si>
+    <t>01.IN.03.028</t>
+  </si>
+  <si>
+    <t>VICRYL 2-0 SH 70 cm</t>
+  </si>
+  <si>
+    <t>01.IN.03.012</t>
+  </si>
+  <si>
+    <t>ETHILON 3-0 KS AGUJA RECTA</t>
+  </si>
+  <si>
+    <t>01.IN.01.088</t>
+  </si>
+  <si>
+    <t>MANGUERA DE SUCCION</t>
+  </si>
+  <si>
+    <t>01.ME.01.012</t>
+  </si>
+  <si>
+    <t>BUPIROP 0.5% 4 ML PESADO</t>
+  </si>
+  <si>
+    <t>01.IN.01.082</t>
+  </si>
+  <si>
+    <t>LLAVE DE TRES VÍAS DISCOFIX</t>
+  </si>
+  <si>
+    <t>01.IN.01.089</t>
+  </si>
+  <si>
+    <t>MANILLA DE IDENTIFICACION ADULTO</t>
+  </si>
+  <si>
+    <t>Fecha: 2022-07-15</t>
+  </si>
+  <si>
+    <t>Concepto: Salida de inventario para MAFLA LESCANO DEBORAH SELENE con CI: 1724261688 el dia 2022-07-15</t>
+  </si>
+  <si>
+    <t>Comprobante: 7005395</t>
   </si>
 </sst>
 </file>
@@ -587,10 +800,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -633,7 +846,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">22:27
+            <t xml:space="preserve">18:53
 </t>
           </r>
           <r>
@@ -658,7 +871,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">23-06-2022
+            <t xml:space="preserve">23-07-2022
 </t>
           </r>
           <r>
@@ -736,30 +949,804 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>1.459</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6" t="s">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>8.825</v>
+      </c>
+      <c r="E6">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>0.0394</v>
+      </c>
+      <c r="E7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>0.6956</v>
+      </c>
+      <c r="E8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>3.0001</v>
+      </c>
+      <c r="E9">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>0.3892</v>
+      </c>
+      <c r="E10">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>3.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>0.1515</v>
+      </c>
+      <c r="E11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>2.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>0.6625</v>
+      </c>
+      <c r="E12">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>0.4521</v>
+      </c>
+      <c r="E13">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>0.06</v>
+      </c>
+      <c r="E14">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>3.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>0.3962</v>
+      </c>
+      <c r="E15">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>3.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>0.3972</v>
+      </c>
+      <c r="E16">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>1.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>0.2047</v>
+      </c>
+      <c r="E17">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>1.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>0.1211</v>
+      </c>
+      <c r="E18">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>0.0715</v>
+      </c>
+      <c r="E19">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>1.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>0.0715</v>
+      </c>
+      <c r="E20">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>1.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>0.08</v>
+      </c>
+      <c r="E21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>0.08</v>
+      </c>
+      <c r="E22">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>2.0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>3.0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>1.0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25">
+        <v>0.16</v>
+      </c>
+      <c r="E25">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>1.0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>1.001</v>
+      </c>
+      <c r="E26">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>1.0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27">
+        <v>0.5417</v>
+      </c>
+      <c r="E27">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>1.0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>0.9407</v>
+      </c>
+      <c r="E28">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>4.0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>0.24</v>
+      </c>
+      <c r="E29">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>3.0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30">
+        <v>0.0584</v>
+      </c>
+      <c r="E30">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>6.0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>0.0298</v>
+      </c>
+      <c r="E31">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>1.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32">
+        <v>1.35</v>
+      </c>
+      <c r="E32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>1.0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>1.0674</v>
+      </c>
+      <c r="E33">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>2.0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>0.3438</v>
+      </c>
+      <c r="E34">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>1.0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35">
+        <v>0.5598</v>
+      </c>
+      <c r="E35">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>2.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36">
+        <v>1.001</v>
+      </c>
+      <c r="E36">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37">
+        <v>3.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37">
+        <v>1.9998</v>
+      </c>
+      <c r="E37">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <v>2.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38">
+        <v>3.8448</v>
+      </c>
+      <c r="E38">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39">
+        <v>2.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39">
+        <v>1.375</v>
+      </c>
+      <c r="E39">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40">
+        <v>1.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40">
+        <v>2.2184</v>
+      </c>
+      <c r="E40">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41">
+        <v>1.0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41">
+        <v>2.4451</v>
+      </c>
+      <c r="E41">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42">
+        <v>1.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42">
+        <v>0.3511</v>
+      </c>
+      <c r="E42">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43">
+        <v>1.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43">
+        <v>0.1111</v>
+      </c>
+      <c r="E43">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <v>2.0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44">
+        <v>1.35</v>
+      </c>
+      <c r="E44">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45">
+        <v>2.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45">
+        <v>0.5598</v>
+      </c>
+      <c r="E45">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>0.01</v>
+      <c r="E46">
+        <v>58.22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>6.0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49">
+        <v>0.0298</v>
+      </c>
+      <c r="E49">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>4.0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>0.24</v>
+      </c>
+      <c r="E50">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>3.0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <v>0.0584</v>
+      </c>
+      <c r="E51">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5">
+        <v>59.53</v>
       </c>
     </row>
   </sheetData>
@@ -768,6 +1755,7 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
